--- a/data/pca/factorExposure/factorExposure_2016-04-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01081002238649805</v>
+        <v>0.0144053788780587</v>
       </c>
       <c r="C2">
-        <v>0.05291893304614742</v>
+        <v>0.0380941858603067</v>
       </c>
       <c r="D2">
-        <v>-0.04285334688793733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05873229078234811</v>
+      </c>
+      <c r="E2">
+        <v>0.09229736953286698</v>
+      </c>
+      <c r="F2">
+        <v>-0.08963516621175845</v>
+      </c>
+      <c r="G2">
+        <v>-0.02279298441771519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04056272790871941</v>
+        <v>0.02514979983429794</v>
       </c>
       <c r="C3">
-        <v>0.1197694719144414</v>
+        <v>0.06602916496669328</v>
       </c>
       <c r="D3">
-        <v>-0.08446386195369886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07208503062858716</v>
+      </c>
+      <c r="E3">
+        <v>0.07234252610474785</v>
+      </c>
+      <c r="F3">
+        <v>0.01951426102744987</v>
+      </c>
+      <c r="G3">
+        <v>-0.05022622086638957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06371336529105172</v>
+        <v>0.06065624931555293</v>
       </c>
       <c r="C4">
-        <v>0.05877167957984807</v>
+        <v>0.06191890405722326</v>
       </c>
       <c r="D4">
-        <v>-0.02889159457811223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05218556155303383</v>
+      </c>
+      <c r="E4">
+        <v>0.08957882783441445</v>
+      </c>
+      <c r="F4">
+        <v>-0.0490362877115452</v>
+      </c>
+      <c r="G4">
+        <v>-0.08728432714945175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04159563629228779</v>
+        <v>0.03742455258530204</v>
       </c>
       <c r="C6">
-        <v>0.03406703696358933</v>
+        <v>0.02560273744749153</v>
       </c>
       <c r="D6">
-        <v>-0.03111501734226265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06080866988524518</v>
+      </c>
+      <c r="E6">
+        <v>0.08931772574930175</v>
+      </c>
+      <c r="F6">
+        <v>-0.03075213935869147</v>
+      </c>
+      <c r="G6">
+        <v>-0.06445110796120206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02756731143393362</v>
+        <v>0.02148006536930458</v>
       </c>
       <c r="C7">
-        <v>0.04071959059606028</v>
+        <v>0.03604528260890245</v>
       </c>
       <c r="D7">
-        <v>0.006116089297771471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03782525751505742</v>
+      </c>
+      <c r="E7">
+        <v>0.06716218144388882</v>
+      </c>
+      <c r="F7">
+        <v>-0.07556069688613251</v>
+      </c>
+      <c r="G7">
+        <v>-0.09470337994519347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007161185848011196</v>
+        <v>0.005266407336657414</v>
       </c>
       <c r="C8">
-        <v>0.0413489827424724</v>
+        <v>0.03419451730065595</v>
       </c>
       <c r="D8">
-        <v>-0.02659335770645325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03219610706822848</v>
+      </c>
+      <c r="E8">
+        <v>0.06245639425914402</v>
+      </c>
+      <c r="F8">
+        <v>-0.02165660188551059</v>
+      </c>
+      <c r="G8">
+        <v>-0.03603887375100981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03768242049158124</v>
+        <v>0.0399045151013186</v>
       </c>
       <c r="C9">
-        <v>0.04710655520744759</v>
+        <v>0.05019295664432594</v>
       </c>
       <c r="D9">
-        <v>-0.01373215852809541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03801961066797041</v>
+      </c>
+      <c r="E9">
+        <v>0.07319974846217514</v>
+      </c>
+      <c r="F9">
+        <v>-0.06203819233189082</v>
+      </c>
+      <c r="G9">
+        <v>-0.07801230715592727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07143939167783192</v>
+        <v>0.09729799602960555</v>
       </c>
       <c r="C10">
-        <v>-0.188778526760564</v>
+        <v>-0.1998747195639105</v>
       </c>
       <c r="D10">
-        <v>0.003731370957012744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01180337789739506</v>
+      </c>
+      <c r="E10">
+        <v>0.03187066943330296</v>
+      </c>
+      <c r="F10">
+        <v>-0.01970142981286803</v>
+      </c>
+      <c r="G10">
+        <v>-0.03455354023292308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04261776842555152</v>
+        <v>0.03770881850381855</v>
       </c>
       <c r="C11">
-        <v>0.0511495214510447</v>
+        <v>0.04747652597111789</v>
       </c>
       <c r="D11">
-        <v>-0.01328675860971132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03147598926728827</v>
+      </c>
+      <c r="E11">
+        <v>0.02952672040169362</v>
+      </c>
+      <c r="F11">
+        <v>-0.04429866086953589</v>
+      </c>
+      <c r="G11">
+        <v>-0.0662982407375476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04530064734188907</v>
+        <v>0.03989389158433677</v>
       </c>
       <c r="C12">
-        <v>0.04653025673477398</v>
+        <v>0.04519874549278671</v>
       </c>
       <c r="D12">
-        <v>-0.002378215253037731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02632403730422692</v>
+      </c>
+      <c r="E12">
+        <v>0.03617862566126467</v>
+      </c>
+      <c r="F12">
+        <v>-0.04590511812144561</v>
+      </c>
+      <c r="G12">
+        <v>-0.06438391462187491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01519666518525748</v>
+        <v>0.01253193149674444</v>
       </c>
       <c r="C13">
-        <v>0.05222720695307368</v>
+        <v>0.04142804021102812</v>
       </c>
       <c r="D13">
-        <v>-0.009648055298509251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04345667650475164</v>
+      </c>
+      <c r="E13">
+        <v>0.1033140555094869</v>
+      </c>
+      <c r="F13">
+        <v>-0.06591527733135635</v>
+      </c>
+      <c r="G13">
+        <v>-0.09382280490461574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01004112353625346</v>
+        <v>0.006448020723949232</v>
       </c>
       <c r="C14">
-        <v>0.03916478877165021</v>
+        <v>0.03130603320403986</v>
       </c>
       <c r="D14">
-        <v>0.007428675815183522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02507056120560082</v>
+      </c>
+      <c r="E14">
+        <v>0.05128899304490814</v>
+      </c>
+      <c r="F14">
+        <v>-0.08220431429731817</v>
+      </c>
+      <c r="G14">
+        <v>-0.07928582131347965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.155155624377719e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005178959078197484</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008098060874654724</v>
+      </c>
+      <c r="E15">
+        <v>0.004967309096852561</v>
+      </c>
+      <c r="F15">
+        <v>-0.00740715806904562</v>
+      </c>
+      <c r="G15">
+        <v>-0.007226881468832195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04044813295808785</v>
+        <v>0.03580478007053806</v>
       </c>
       <c r="C16">
-        <v>0.04766807377158767</v>
+        <v>0.04400874158589073</v>
       </c>
       <c r="D16">
-        <v>-0.004706373636042801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02503791222319225</v>
+      </c>
+      <c r="E16">
+        <v>0.04287070429395999</v>
+      </c>
+      <c r="F16">
+        <v>-0.05525530262150424</v>
+      </c>
+      <c r="G16">
+        <v>-0.05372474825682736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02678741691409325</v>
+        <v>0.01876966851525987</v>
       </c>
       <c r="C19">
-        <v>0.05960758921946031</v>
+        <v>0.04388044653593003</v>
       </c>
       <c r="D19">
-        <v>-0.09149165655490815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0916143092584355</v>
+      </c>
+      <c r="E19">
+        <v>0.1145552092052769</v>
+      </c>
+      <c r="F19">
+        <v>-0.06623989504468891</v>
+      </c>
+      <c r="G19">
+        <v>-0.04082236780712028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01902047423889599</v>
+        <v>0.01510880711404263</v>
       </c>
       <c r="C20">
-        <v>0.0474685735254225</v>
+        <v>0.03854732023881637</v>
       </c>
       <c r="D20">
-        <v>-0.01056415768975588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03238915116945819</v>
+      </c>
+      <c r="E20">
+        <v>0.08099192114607574</v>
+      </c>
+      <c r="F20">
+        <v>-0.05577862288631811</v>
+      </c>
+      <c r="G20">
+        <v>-0.06519484944401299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01261144162076581</v>
+        <v>0.01076604863846946</v>
       </c>
       <c r="C21">
-        <v>0.05450724843474547</v>
+        <v>0.04342906884532336</v>
       </c>
       <c r="D21">
-        <v>-0.03034224323275279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05544814764349935</v>
+      </c>
+      <c r="E21">
+        <v>0.126918082728419</v>
+      </c>
+      <c r="F21">
+        <v>-0.09657023500195659</v>
+      </c>
+      <c r="G21">
+        <v>-0.09312705299208004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001673031430169853</v>
+        <v>0.004047039092171063</v>
       </c>
       <c r="C22">
-        <v>0.001098718038997332</v>
+        <v>0.02775363372013017</v>
       </c>
       <c r="D22">
-        <v>-0.006350014600767998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0444997020588763</v>
+      </c>
+      <c r="E22">
+        <v>0.04986123748601509</v>
+      </c>
+      <c r="F22">
+        <v>0.007992063167620713</v>
+      </c>
+      <c r="G22">
+        <v>-0.05686713385182943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001678776181452247</v>
+        <v>0.004139319707299805</v>
       </c>
       <c r="C23">
-        <v>0.001117930316248478</v>
+        <v>0.02789215762464311</v>
       </c>
       <c r="D23">
-        <v>-0.006339247403984876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04405173403537564</v>
+      </c>
+      <c r="E23">
+        <v>0.05012393918903463</v>
+      </c>
+      <c r="F23">
+        <v>0.008267540896724964</v>
+      </c>
+      <c r="G23">
+        <v>-0.05687186615779121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03729803461177505</v>
+        <v>0.03618328040411359</v>
       </c>
       <c r="C24">
-        <v>0.04984498440742801</v>
+        <v>0.05202462978473096</v>
       </c>
       <c r="D24">
-        <v>-0.006619930625691616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0242037551311108</v>
+      </c>
+      <c r="E24">
+        <v>0.04403878785230435</v>
+      </c>
+      <c r="F24">
+        <v>-0.05864343877674324</v>
+      </c>
+      <c r="G24">
+        <v>-0.0663059045439312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0490867324074604</v>
+        <v>0.04406660336522843</v>
       </c>
       <c r="C25">
-        <v>0.06091115332973206</v>
+        <v>0.05585988721881645</v>
       </c>
       <c r="D25">
-        <v>0.004135170476995436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0223099368138785</v>
+      </c>
+      <c r="E25">
+        <v>0.03674020513605671</v>
+      </c>
+      <c r="F25">
+        <v>-0.04836718290281838</v>
+      </c>
+      <c r="G25">
+        <v>-0.07604844271560178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01677251534315048</v>
+        <v>0.01576157484621728</v>
       </c>
       <c r="C26">
-        <v>0.01776436798195543</v>
+        <v>0.01676759779930119</v>
       </c>
       <c r="D26">
-        <v>-0.0007350088295136801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02409169424679951</v>
+      </c>
+      <c r="E26">
+        <v>0.05360828944772493</v>
+      </c>
+      <c r="F26">
+        <v>-0.06288047726743004</v>
+      </c>
+      <c r="G26">
+        <v>-0.04760817522185865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08536864892558407</v>
+        <v>0.1323745656738132</v>
       </c>
       <c r="C28">
-        <v>-0.2493929366924185</v>
+        <v>-0.2556911925180088</v>
       </c>
       <c r="D28">
-        <v>0.004741475286100391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02904858426623895</v>
+      </c>
+      <c r="E28">
+        <v>0.05594107478245668</v>
+      </c>
+      <c r="F28">
+        <v>-0.03497632257819577</v>
+      </c>
+      <c r="G28">
+        <v>-0.04894060116423268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008105872922168291</v>
+        <v>0.006510113057051584</v>
       </c>
       <c r="C29">
-        <v>0.03280361162149419</v>
+        <v>0.02836916474336005</v>
       </c>
       <c r="D29">
-        <v>0.01401954006025528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01645646913731952</v>
+      </c>
+      <c r="E29">
+        <v>0.05098697473195193</v>
+      </c>
+      <c r="F29">
+        <v>-0.07219038277558529</v>
+      </c>
+      <c r="G29">
+        <v>-0.08376387873747497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0472529947505353</v>
+        <v>0.04371371359314221</v>
       </c>
       <c r="C30">
-        <v>0.05282501088191312</v>
+        <v>0.05654649615326905</v>
       </c>
       <c r="D30">
-        <v>-0.07983402102160907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1009546747380594</v>
+      </c>
+      <c r="E30">
+        <v>0.08116791714314442</v>
+      </c>
+      <c r="F30">
+        <v>-0.07317156510405486</v>
+      </c>
+      <c r="G30">
+        <v>-0.0633591092975378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06084013638896037</v>
+        <v>0.05876630144648525</v>
       </c>
       <c r="C31">
-        <v>0.04368305762143466</v>
+        <v>0.06055334552500517</v>
       </c>
       <c r="D31">
-        <v>0.04351123572641209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01878879639912663</v>
+      </c>
+      <c r="E31">
+        <v>0.07086672882849673</v>
+      </c>
+      <c r="F31">
+        <v>-0.03117073599014366</v>
+      </c>
+      <c r="G31">
+        <v>-0.08379097729004487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001813085736853137</v>
+        <v>0.006259103430216875</v>
       </c>
       <c r="C32">
-        <v>0.04238703876463965</v>
+        <v>0.03379929509334465</v>
       </c>
       <c r="D32">
-        <v>-0.05853463087840994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05355612276370064</v>
+      </c>
+      <c r="E32">
+        <v>0.05789160250443803</v>
+      </c>
+      <c r="F32">
+        <v>-0.0740779213503608</v>
+      </c>
+      <c r="G32">
+        <v>-0.06373945876852793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03473340988619637</v>
+        <v>0.02824472439168012</v>
       </c>
       <c r="C33">
-        <v>0.05650841064926266</v>
+        <v>0.05164090281162936</v>
       </c>
       <c r="D33">
-        <v>-0.04006990517812416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07025783057513962</v>
+      </c>
+      <c r="E33">
+        <v>0.09234154348308668</v>
+      </c>
+      <c r="F33">
+        <v>-0.07299781746213277</v>
+      </c>
+      <c r="G33">
+        <v>-0.094635377623488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04635778880934961</v>
+        <v>0.04169367171375126</v>
       </c>
       <c r="C34">
-        <v>0.0642178118676015</v>
+        <v>0.06248973257483481</v>
       </c>
       <c r="D34">
-        <v>-0.01873368066037538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03794070545069682</v>
+      </c>
+      <c r="E34">
+        <v>0.01872228619626217</v>
+      </c>
+      <c r="F34">
+        <v>-0.05862726513025968</v>
+      </c>
+      <c r="G34">
+        <v>-0.0677409230137255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01746826521152059</v>
+        <v>0.01482521364634239</v>
       </c>
       <c r="C36">
-        <v>0.01665248877467694</v>
+        <v>0.01350681404112436</v>
       </c>
       <c r="D36">
-        <v>0.003272736576731566</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02328238511051401</v>
+      </c>
+      <c r="E36">
+        <v>0.06177265723375169</v>
+      </c>
+      <c r="F36">
+        <v>-0.0543578843211085</v>
+      </c>
+      <c r="G36">
+        <v>-0.06416957693252445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03046573968154379</v>
+        <v>0.02370388388122981</v>
       </c>
       <c r="C38">
-        <v>0.03132268456706852</v>
+        <v>0.02409315167701198</v>
       </c>
       <c r="D38">
-        <v>0.01388876941145802</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02060182741296919</v>
+      </c>
+      <c r="E38">
+        <v>0.0514595523877503</v>
+      </c>
+      <c r="F38">
+        <v>-0.04388612140015506</v>
+      </c>
+      <c r="G38">
+        <v>-0.04372680353550702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0479866898444036</v>
+        <v>0.04197805583858011</v>
       </c>
       <c r="C39">
-        <v>0.06132730077996646</v>
+        <v>0.06209651558524855</v>
       </c>
       <c r="D39">
-        <v>-0.01996905380709307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0506453890912136</v>
+      </c>
+      <c r="E39">
+        <v>0.05114475749129895</v>
+      </c>
+      <c r="F39">
+        <v>-0.07765964394575352</v>
+      </c>
+      <c r="G39">
+        <v>-0.05965756816685822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01214382877101077</v>
+        <v>0.01395334263307765</v>
       </c>
       <c r="C40">
-        <v>0.05339540107557102</v>
+        <v>0.03864563779359998</v>
       </c>
       <c r="D40">
-        <v>-0.01893804922796366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03024051464615299</v>
+      </c>
+      <c r="E40">
+        <v>0.0913448664019671</v>
+      </c>
+      <c r="F40">
+        <v>-0.04253551495482381</v>
+      </c>
+      <c r="G40">
+        <v>-0.1000666742650962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02285665643842098</v>
+        <v>0.01954669419335829</v>
       </c>
       <c r="C41">
-        <v>0.01234856004366716</v>
+        <v>0.009149159805677588</v>
       </c>
       <c r="D41">
-        <v>-0.001085809721698912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0150903639639766</v>
+      </c>
+      <c r="E41">
+        <v>0.06214291567554735</v>
+      </c>
+      <c r="F41">
+        <v>-0.05012282314329438</v>
+      </c>
+      <c r="G41">
+        <v>-0.05149541882296556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04339492848945449</v>
+        <v>0.03104357436600903</v>
       </c>
       <c r="C43">
-        <v>0.03317621987734943</v>
+        <v>0.02438743777627194</v>
       </c>
       <c r="D43">
-        <v>-0.02155855580011383</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04300911842254893</v>
+      </c>
+      <c r="E43">
+        <v>0.07938674237973153</v>
+      </c>
+      <c r="F43">
+        <v>-0.04307976215263689</v>
+      </c>
+      <c r="G43">
+        <v>-0.08008303174980018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01546896148985944</v>
+        <v>0.01637150200540879</v>
       </c>
       <c r="C44">
-        <v>0.06792392844370004</v>
+        <v>0.04722025981687804</v>
       </c>
       <c r="D44">
-        <v>-0.00801479667802619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03177207953805623</v>
+      </c>
+      <c r="E44">
+        <v>0.08907277991221396</v>
+      </c>
+      <c r="F44">
+        <v>-0.06568360241079467</v>
+      </c>
+      <c r="G44">
+        <v>-0.04759918984072743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01106377732653193</v>
+        <v>0.01166647424499241</v>
       </c>
       <c r="C46">
-        <v>0.02752173007148409</v>
+        <v>0.02859835690433012</v>
       </c>
       <c r="D46">
-        <v>0.01571390751864108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01185492236875511</v>
+      </c>
+      <c r="E46">
+        <v>0.06086181661172255</v>
+      </c>
+      <c r="F46">
+        <v>-0.08498466909183716</v>
+      </c>
+      <c r="G46">
+        <v>-0.08130782906234198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0898137789542465</v>
+        <v>0.09250875813911791</v>
       </c>
       <c r="C47">
-        <v>0.06686979281607218</v>
+        <v>0.07836506998123681</v>
       </c>
       <c r="D47">
-        <v>0.04343476637918299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02521395424125746</v>
+      </c>
+      <c r="E47">
+        <v>0.06753351261180997</v>
+      </c>
+      <c r="F47">
+        <v>-0.02892595704680864</v>
+      </c>
+      <c r="G47">
+        <v>-0.0780434259638345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01910296704143762</v>
+        <v>0.01751589992771889</v>
       </c>
       <c r="C48">
-        <v>0.01412715403768621</v>
+        <v>0.01580232855963563</v>
       </c>
       <c r="D48">
-        <v>0.01657119483992931</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01033351993408059</v>
+      </c>
+      <c r="E48">
+        <v>0.07353246004543265</v>
+      </c>
+      <c r="F48">
+        <v>-0.06732876751837019</v>
+      </c>
+      <c r="G48">
+        <v>-0.07100967999411181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08485483554619593</v>
+        <v>0.07238710974408798</v>
       </c>
       <c r="C50">
-        <v>0.07991870443305875</v>
+        <v>0.07400129891373011</v>
       </c>
       <c r="D50">
-        <v>0.04345833749335382</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0100464647571345</v>
+      </c>
+      <c r="E50">
+        <v>0.07783080691096624</v>
+      </c>
+      <c r="F50">
+        <v>-0.002882604845159975</v>
+      </c>
+      <c r="G50">
+        <v>-0.09303595400635264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01777793688479017</v>
+        <v>0.01122600837582747</v>
       </c>
       <c r="C51">
-        <v>0.05046545063235936</v>
+        <v>0.03227730588181528</v>
       </c>
       <c r="D51">
-        <v>-0.04014521223560981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05571231812379541</v>
+      </c>
+      <c r="E51">
+        <v>0.05290609405289239</v>
+      </c>
+      <c r="F51">
+        <v>-0.07431700806378752</v>
+      </c>
+      <c r="G51">
+        <v>-0.05774323597606853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08494061829982233</v>
+        <v>0.09749980440970389</v>
       </c>
       <c r="C53">
-        <v>0.07646710681108469</v>
+        <v>0.08505618642174485</v>
       </c>
       <c r="D53">
-        <v>0.06554744332461872</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06234312634318091</v>
+      </c>
+      <c r="E53">
+        <v>0.06493651626935805</v>
+      </c>
+      <c r="F53">
+        <v>-0.02657225989851013</v>
+      </c>
+      <c r="G53">
+        <v>-0.06850367101451893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0369040280589344</v>
+        <v>0.02992424187606274</v>
       </c>
       <c r="C54">
-        <v>0.03678642618901445</v>
+        <v>0.03218252796824454</v>
       </c>
       <c r="D54">
-        <v>0.004836061864577801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02363602607817828</v>
+      </c>
+      <c r="E54">
+        <v>0.05753123963639031</v>
+      </c>
+      <c r="F54">
+        <v>-0.07374392386976848</v>
+      </c>
+      <c r="G54">
+        <v>-0.08178079925781452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07974052960473783</v>
+        <v>0.08989864258469527</v>
       </c>
       <c r="C55">
-        <v>0.05366836390554634</v>
+        <v>0.06715746954705373</v>
       </c>
       <c r="D55">
-        <v>0.06992731173302506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06252061281110805</v>
+      </c>
+      <c r="E55">
+        <v>0.04294206682164743</v>
+      </c>
+      <c r="F55">
+        <v>-0.007140522189353974</v>
+      </c>
+      <c r="G55">
+        <v>-0.05391317319074847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1532459189841855</v>
+        <v>0.1555480920051016</v>
       </c>
       <c r="C56">
-        <v>0.08084437765781449</v>
+        <v>0.0995551789023066</v>
       </c>
       <c r="D56">
-        <v>0.06131695842759111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05698231557560895</v>
+      </c>
+      <c r="E56">
+        <v>0.03962924803879168</v>
+      </c>
+      <c r="F56">
+        <v>0.01463744577056407</v>
+      </c>
+      <c r="G56">
+        <v>-0.02496295834654453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0506431313219844</v>
+        <v>0.03157406162166112</v>
       </c>
       <c r="C58">
-        <v>0.02264741748093885</v>
+        <v>0.02211824147960557</v>
       </c>
       <c r="D58">
-        <v>-0.5901324585248239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3699683672270483</v>
+      </c>
+      <c r="E58">
+        <v>0.6326610070285483</v>
+      </c>
+      <c r="F58">
+        <v>0.4372090931001004</v>
+      </c>
+      <c r="G58">
+        <v>0.4381045709912216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1250548078409242</v>
+        <v>0.1400008544660472</v>
       </c>
       <c r="C59">
-        <v>-0.2019466707677929</v>
+        <v>-0.191500357652871</v>
       </c>
       <c r="D59">
-        <v>-0.02852358844529402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03012915681314045</v>
+      </c>
+      <c r="E59">
+        <v>0.0284640795847584</v>
+      </c>
+      <c r="F59">
+        <v>-0.03649099344354838</v>
+      </c>
+      <c r="G59">
+        <v>0.01181314530383039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3066538821048176</v>
+        <v>0.2767538179856605</v>
       </c>
       <c r="C60">
-        <v>0.111043648163635</v>
+        <v>0.1064713860506007</v>
       </c>
       <c r="D60">
-        <v>-0.1783348065802019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.258692285217719</v>
+      </c>
+      <c r="E60">
+        <v>-0.239589761740378</v>
+      </c>
+      <c r="F60">
+        <v>0.08532658784755863</v>
+      </c>
+      <c r="G60">
+        <v>-0.04792882856617792</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04684173254863671</v>
+        <v>0.04334216344645793</v>
       </c>
       <c r="C61">
-        <v>0.06011328258486389</v>
+        <v>0.05748637571217594</v>
       </c>
       <c r="D61">
-        <v>-0.01377890407469047</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04113649895522976</v>
+      </c>
+      <c r="E61">
+        <v>0.05359474204918725</v>
+      </c>
+      <c r="F61">
+        <v>-0.06019570640919198</v>
+      </c>
+      <c r="G61">
+        <v>-0.07488692581168122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01926194428790351</v>
+        <v>0.01732806728724255</v>
       </c>
       <c r="C63">
-        <v>0.03357489771735953</v>
+        <v>0.03058649768351664</v>
       </c>
       <c r="D63">
-        <v>0.02239847004950897</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01539510941700114</v>
+      </c>
+      <c r="E63">
+        <v>0.06386121056138637</v>
+      </c>
+      <c r="F63">
+        <v>-0.03848488759238756</v>
+      </c>
+      <c r="G63">
+        <v>-0.07498645086435739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05059727275101364</v>
+        <v>0.05627863501612061</v>
       </c>
       <c r="C64">
-        <v>0.04772518760311502</v>
+        <v>0.05803073290434557</v>
       </c>
       <c r="D64">
-        <v>-0.01445633970715279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.007165109020828693</v>
+      </c>
+      <c r="E64">
+        <v>0.04371125349729234</v>
+      </c>
+      <c r="F64">
+        <v>-0.05291464537098263</v>
+      </c>
+      <c r="G64">
+        <v>-0.05135447789316268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08136090648322487</v>
+        <v>0.06602258429624398</v>
       </c>
       <c r="C65">
-        <v>0.02336561980451356</v>
+        <v>0.02436709488302833</v>
       </c>
       <c r="D65">
-        <v>-0.06196359488350388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08749298229303985</v>
+      </c>
+      <c r="E65">
+        <v>0.05604207067218502</v>
+      </c>
+      <c r="F65">
+        <v>-0.006749806868216263</v>
+      </c>
+      <c r="G65">
+        <v>-0.0212504762696141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06352365983750753</v>
+        <v>0.05434583704711238</v>
       </c>
       <c r="C66">
-        <v>0.08539454394011062</v>
+        <v>0.08024438002754419</v>
       </c>
       <c r="D66">
-        <v>-0.03987506077657083</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07533615010044326</v>
+      </c>
+      <c r="E66">
+        <v>0.06206253506084232</v>
+      </c>
+      <c r="F66">
+        <v>-0.07090410138719269</v>
+      </c>
+      <c r="G66">
+        <v>-0.07292322629570769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05185323743193063</v>
+        <v>0.04506241886978082</v>
       </c>
       <c r="C67">
-        <v>0.03107779185504635</v>
+        <v>0.02848407450308148</v>
       </c>
       <c r="D67">
-        <v>0.02270378513474213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004230155072505121</v>
+      </c>
+      <c r="E67">
+        <v>0.02709282415486772</v>
+      </c>
+      <c r="F67">
+        <v>-0.02955645671116894</v>
+      </c>
+      <c r="G67">
+        <v>-0.03502636955160983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1205030144183025</v>
+        <v>0.1451080163104757</v>
       </c>
       <c r="C68">
-        <v>-0.2819770840260128</v>
+        <v>-0.2456718100148938</v>
       </c>
       <c r="D68">
-        <v>0.008347168091948633</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01683837767819524</v>
+      </c>
+      <c r="E68">
+        <v>0.04319817356308826</v>
+      </c>
+      <c r="F68">
+        <v>-0.01151373609899749</v>
+      </c>
+      <c r="G68">
+        <v>-0.03040968536617615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0924572680897892</v>
+        <v>0.08788296603343144</v>
       </c>
       <c r="C69">
-        <v>0.07137159156716422</v>
+        <v>0.08941754364616925</v>
       </c>
       <c r="D69">
-        <v>0.05238421824847631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01684000501047702</v>
+      </c>
+      <c r="E69">
+        <v>0.05920604628506113</v>
+      </c>
+      <c r="F69">
+        <v>-0.06008288999766285</v>
+      </c>
+      <c r="G69">
+        <v>-0.07514270761071755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1115566541626579</v>
+        <v>0.1394472788345309</v>
       </c>
       <c r="C71">
-        <v>-0.2596301578428439</v>
+        <v>-0.2449651170332987</v>
       </c>
       <c r="D71">
-        <v>-0.01134506422482148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0007835516248825182</v>
+      </c>
+      <c r="E71">
+        <v>0.05641031053103765</v>
+      </c>
+      <c r="F71">
+        <v>-0.0151480801871796</v>
+      </c>
+      <c r="G71">
+        <v>-0.0653859358054629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09771480879955922</v>
+        <v>0.1043772003083696</v>
       </c>
       <c r="C72">
-        <v>0.04388433074089122</v>
+        <v>0.05051187312898184</v>
       </c>
       <c r="D72">
-        <v>-0.00627551065595097</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03340237540131597</v>
+      </c>
+      <c r="E72">
+        <v>0.02251159892434584</v>
+      </c>
+      <c r="F72">
+        <v>-0.02986730005958626</v>
+      </c>
+      <c r="G72">
+        <v>-0.08601372540160578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3961951674521411</v>
+        <v>0.3352518979132639</v>
       </c>
       <c r="C73">
-        <v>0.04826085575408746</v>
+        <v>0.06997985847348678</v>
       </c>
       <c r="D73">
-        <v>-0.4402393608733136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5161376504624526</v>
+      </c>
+      <c r="E73">
+        <v>-0.4436826616390464</v>
+      </c>
+      <c r="F73">
+        <v>0.2399304479070117</v>
+      </c>
+      <c r="G73">
+        <v>-0.02507358162892059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1091761716358174</v>
+        <v>0.1132062838208955</v>
       </c>
       <c r="C74">
-        <v>0.09214349418230015</v>
+        <v>0.0920236924876968</v>
       </c>
       <c r="D74">
-        <v>0.04683479322191525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04817759432130874</v>
+      </c>
+      <c r="E74">
+        <v>0.05704596148146848</v>
+      </c>
+      <c r="F74">
+        <v>0.006814240276800855</v>
+      </c>
+      <c r="G74">
+        <v>-0.04447239752377986</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.258895861012312</v>
+        <v>0.2624208487552961</v>
       </c>
       <c r="C75">
-        <v>0.08980777608842794</v>
+        <v>0.1218410567228463</v>
       </c>
       <c r="D75">
-        <v>0.1358711478174044</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1510738372447304</v>
+      </c>
+      <c r="E75">
+        <v>0.0283155683290763</v>
+      </c>
+      <c r="F75">
+        <v>0.0712500013491886</v>
+      </c>
+      <c r="G75">
+        <v>0.05159368105072522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1176027882139501</v>
+        <v>0.1304009798458171</v>
       </c>
       <c r="C76">
-        <v>0.08057904240826727</v>
+        <v>0.09184743961484856</v>
       </c>
       <c r="D76">
-        <v>0.07661992361929584</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.08329085443996458</v>
+      </c>
+      <c r="E76">
+        <v>0.07176664265451063</v>
+      </c>
+      <c r="F76">
+        <v>-0.0122294166591236</v>
+      </c>
+      <c r="G76">
+        <v>-0.03079847428810953</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08080429573684686</v>
+        <v>0.06625871880642734</v>
       </c>
       <c r="C77">
-        <v>0.04589387333323342</v>
+        <v>0.058613397642448</v>
       </c>
       <c r="D77">
-        <v>-0.05216988100267567</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05395267204831864</v>
+      </c>
+      <c r="E77">
+        <v>0.09774846553351262</v>
+      </c>
+      <c r="F77">
+        <v>-0.1774998058699378</v>
+      </c>
+      <c r="G77">
+        <v>0.1079406494722363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04883129705382078</v>
+        <v>0.04687217615374161</v>
       </c>
       <c r="C78">
-        <v>0.04085230343900175</v>
+        <v>0.05221318643410781</v>
       </c>
       <c r="D78">
-        <v>-0.03191507759891894</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06126517473624064</v>
+      </c>
+      <c r="E78">
+        <v>0.06327262101955426</v>
+      </c>
+      <c r="F78">
+        <v>-0.06032706897666471</v>
+      </c>
+      <c r="G78">
+        <v>-0.06205760031102354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0001977999087458771</v>
+        <v>0.03253339237859121</v>
       </c>
       <c r="C79">
-        <v>0.0002483689598340557</v>
+        <v>0.04727605281147932</v>
       </c>
       <c r="D79">
-        <v>-0.00148948143550291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08349143038227473</v>
+      </c>
+      <c r="E79">
+        <v>0.06605001009892982</v>
+      </c>
+      <c r="F79">
+        <v>0.02142146913981915</v>
+      </c>
+      <c r="G79">
+        <v>-0.03296519893576455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03957003367640702</v>
+        <v>0.03073542167408771</v>
       </c>
       <c r="C80">
-        <v>0.04953377971727502</v>
+        <v>0.04961294993008411</v>
       </c>
       <c r="D80">
-        <v>-0.02956343352194456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03910191274302693</v>
+      </c>
+      <c r="E80">
+        <v>0.01705329079892607</v>
+      </c>
+      <c r="F80">
+        <v>-0.05412471798775111</v>
+      </c>
+      <c r="G80">
+        <v>0.00130207730029831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1435037414899648</v>
+        <v>0.1429464895823554</v>
       </c>
       <c r="C81">
-        <v>0.07116316764695794</v>
+        <v>0.09115535640241755</v>
       </c>
       <c r="D81">
-        <v>0.1118142734064305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1278533142904077</v>
+      </c>
+      <c r="E81">
+        <v>0.07034656888897073</v>
+      </c>
+      <c r="F81">
+        <v>0.02851265705086076</v>
+      </c>
+      <c r="G81">
+        <v>0.01390067984759764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1889201967439673</v>
+        <v>0.2243406376614988</v>
       </c>
       <c r="C82">
-        <v>0.08340250713411332</v>
+        <v>0.1484897200098854</v>
       </c>
       <c r="D82">
-        <v>0.1998439742853323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2526815707671921</v>
+      </c>
+      <c r="E82">
+        <v>-0.03444082281115279</v>
+      </c>
+      <c r="F82">
+        <v>-0.04820535656840872</v>
+      </c>
+      <c r="G82">
+        <v>-0.06285439080923308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04110316391519556</v>
+        <v>0.02760621260017899</v>
       </c>
       <c r="C83">
-        <v>0.03008043164179513</v>
+        <v>0.04375201517126387</v>
       </c>
       <c r="D83">
-        <v>-0.03688115157875074</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02985026943693369</v>
+      </c>
+      <c r="E83">
+        <v>0.02534076665073211</v>
+      </c>
+      <c r="F83">
+        <v>-0.04035926179366816</v>
+      </c>
+      <c r="G83">
+        <v>-0.002932236422694487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0003052800274621048</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-5.623364260325139e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001804422923699181</v>
+      </c>
+      <c r="E84">
+        <v>0.003102991362893059</v>
+      </c>
+      <c r="F84">
+        <v>0.0001480566571769964</v>
+      </c>
+      <c r="G84">
+        <v>-0.002297884849045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2203180852399924</v>
+        <v>0.2037886729569739</v>
       </c>
       <c r="C85">
-        <v>0.09188807893709627</v>
+        <v>0.1101167502561214</v>
       </c>
       <c r="D85">
-        <v>0.1677388314512459</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1319197659363774</v>
+      </c>
+      <c r="E85">
+        <v>-0.007230307727017415</v>
+      </c>
+      <c r="F85">
+        <v>0.1097724878993438</v>
+      </c>
+      <c r="G85">
+        <v>0.002982422911210837</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009746391169011938</v>
+        <v>0.01213069881467994</v>
       </c>
       <c r="C86">
-        <v>0.02834424806285324</v>
+        <v>0.01828282760591382</v>
       </c>
       <c r="D86">
-        <v>-0.04432707835391018</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06210132968547485</v>
+      </c>
+      <c r="E86">
+        <v>0.08082012995636055</v>
+      </c>
+      <c r="F86">
+        <v>-0.08845702693608311</v>
+      </c>
+      <c r="G86">
+        <v>-0.07383634760808064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02529422785665747</v>
+        <v>0.02588492386796816</v>
       </c>
       <c r="C87">
-        <v>0.003567113915320819</v>
+        <v>0.01199874253124211</v>
       </c>
       <c r="D87">
-        <v>-0.08522661054099875</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08154863808457599</v>
+      </c>
+      <c r="E87">
+        <v>0.1321496698878055</v>
+      </c>
+      <c r="F87">
+        <v>-0.08164644747167335</v>
+      </c>
+      <c r="G87">
+        <v>-0.005370294956074518</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.110459311005339</v>
+        <v>0.09407004186856885</v>
       </c>
       <c r="C88">
-        <v>0.07042157868020646</v>
+        <v>0.06066792634577045</v>
       </c>
       <c r="D88">
-        <v>0.0250703116982819</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008262992577989885</v>
+      </c>
+      <c r="E88">
+        <v>0.05311708851806451</v>
+      </c>
+      <c r="F88">
+        <v>-0.05486367033153901</v>
+      </c>
+      <c r="G88">
+        <v>-0.04199966991486843</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1761941629061274</v>
+        <v>0.2129959729170448</v>
       </c>
       <c r="C89">
-        <v>-0.3866827117849573</v>
+        <v>-0.3876097966997483</v>
       </c>
       <c r="D89">
-        <v>0.02347674275056263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01523472941046414</v>
+      </c>
+      <c r="E89">
+        <v>0.06827862059432518</v>
+      </c>
+      <c r="F89">
+        <v>-0.08974707460849629</v>
+      </c>
+      <c r="G89">
+        <v>0.004159639196989756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1693139534549842</v>
+        <v>0.1935695032700546</v>
       </c>
       <c r="C90">
-        <v>-0.3373731459111988</v>
+        <v>-0.3134002107775664</v>
       </c>
       <c r="D90">
-        <v>0.03655298943970375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02319395133017533</v>
+      </c>
+      <c r="E90">
+        <v>0.05712723910728289</v>
+      </c>
+      <c r="F90">
+        <v>-0.03173281799802549</v>
+      </c>
+      <c r="G90">
+        <v>-0.01036338478946874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1930225267848303</v>
+        <v>0.1900468613515934</v>
       </c>
       <c r="C91">
-        <v>0.12184619550535</v>
+        <v>0.1385290296432619</v>
       </c>
       <c r="D91">
-        <v>0.1327140324094884</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1308421739581034</v>
+      </c>
+      <c r="E91">
+        <v>0.04346403781503479</v>
+      </c>
+      <c r="F91">
+        <v>0.01994017267170226</v>
+      </c>
+      <c r="G91">
+        <v>0.005180260757765958</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1569219657388617</v>
+        <v>0.176731785760591</v>
       </c>
       <c r="C92">
-        <v>-0.2935048835479625</v>
+        <v>-0.2974047840338987</v>
       </c>
       <c r="D92">
-        <v>0.0142757554862961</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01539785125070344</v>
+      </c>
+      <c r="E92">
+        <v>0.06220185450684648</v>
+      </c>
+      <c r="F92">
+        <v>-0.05556883361845983</v>
+      </c>
+      <c r="G92">
+        <v>-0.02670353122714718</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1882498460096778</v>
+        <v>0.2141258406435051</v>
       </c>
       <c r="C93">
-        <v>-0.3428302174671743</v>
+        <v>-0.3234674384063995</v>
       </c>
       <c r="D93">
-        <v>0.03656659854610327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01906150344476206</v>
+      </c>
+      <c r="E93">
+        <v>0.03884707827468565</v>
+      </c>
+      <c r="F93">
+        <v>-0.006845485050217443</v>
+      </c>
+      <c r="G93">
+        <v>-0.04175756366621751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3410693295358432</v>
+        <v>0.3436480378721757</v>
       </c>
       <c r="C94">
-        <v>0.1235766663336699</v>
+        <v>0.1706075722492071</v>
       </c>
       <c r="D94">
-        <v>0.3761384975501658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4059865988331975</v>
+      </c>
+      <c r="E94">
+        <v>-0.01105369336246593</v>
+      </c>
+      <c r="F94">
+        <v>0.133340201585421</v>
+      </c>
+      <c r="G94">
+        <v>0.3891266103414455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1245345322031024</v>
+        <v>0.09169357879304016</v>
       </c>
       <c r="C95">
-        <v>0.05370644700434431</v>
+        <v>0.0572907080154241</v>
       </c>
       <c r="D95">
-        <v>-0.2145809955982722</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2025154035876946</v>
+      </c>
+      <c r="E95">
+        <v>-0.1205836520497186</v>
+      </c>
+      <c r="F95">
+        <v>-0.680428734859741</v>
+      </c>
+      <c r="G95">
+        <v>0.5985035176882954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.192042963377065</v>
+        <v>0.1865380815721463</v>
       </c>
       <c r="C98">
-        <v>0.02845296215066298</v>
+        <v>0.04778571382243085</v>
       </c>
       <c r="D98">
-        <v>-0.1597420984782998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.203163119777219</v>
+      </c>
+      <c r="E98">
+        <v>-0.1333740496602551</v>
+      </c>
+      <c r="F98">
+        <v>0.08067672478647947</v>
+      </c>
+      <c r="G98">
+        <v>-0.08283650849334143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007884235881947147</v>
+        <v>0.006502080951622832</v>
       </c>
       <c r="C101">
-        <v>0.0328285647359728</v>
+        <v>0.02791814202548437</v>
       </c>
       <c r="D101">
-        <v>0.01378135884478502</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01635158618133246</v>
+      </c>
+      <c r="E101">
+        <v>0.05166394926306019</v>
+      </c>
+      <c r="F101">
+        <v>-0.07289740077215372</v>
+      </c>
+      <c r="G101">
+        <v>-0.08358006425163855</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1233957620320713</v>
+        <v>0.1270360940940815</v>
       </c>
       <c r="C102">
-        <v>0.06752887008059137</v>
+        <v>0.09770044076338502</v>
       </c>
       <c r="D102">
-        <v>0.04923441604542354</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05883587264983653</v>
+      </c>
+      <c r="E102">
+        <v>-0.01541627022192898</v>
+      </c>
+      <c r="F102">
+        <v>-0.02347420586011104</v>
+      </c>
+      <c r="G102">
+        <v>0.0122932027719635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
